--- a/weapons.xlsx
+++ b/weapons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>GDE_FIELD_NAMES</t>
   </si>
@@ -73,6 +73,24 @@
     <t/>
   </si>
   <si>
+    <t>Gun0_MaxZoom</t>
+  </si>
+  <si>
+    <t>Gun0_Stability</t>
+  </si>
+  <si>
+    <t>STABILITY</t>
+  </si>
+  <si>
+    <t>Gun0_Capacity</t>
+  </si>
+  <si>
+    <t>CAPACITY</t>
+  </si>
+  <si>
+    <t>Gun0_Infrared</t>
+  </si>
+  <si>
     <t>IncreaseValue</t>
   </si>
   <si>
@@ -103,7 +121,7 @@
     <t>Gun0</t>
   </si>
   <si>
-    <t>"Gun0_Power","",""</t>
+    <t>"Gun0_Power","Gun0_MaxZoom","Gun0_Stability","Gun0_Capacity","Gun0_Infrared"</t>
   </si>
 </sst>
 </file>
@@ -149,7 +167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -157,7 +175,7 @@
   <cols>
     <col min="1" max="1" width="18.6636254446847" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.97575487409319" customWidth="1"/>
     <col min="4" max="4" width="11.2924401419503" customWidth="1"/>
     <col min="5" max="5" width="13.0930350167411" customWidth="1"/>
     <col min="6" max="6" width="12.6582314627511" customWidth="1"/>
@@ -250,6 +268,122 @@
         <v>18</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="0">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="0">
+        <v>21.5</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0">
+        <v>3</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0">
+        <v>3</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="0">
+        <v>8</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -276,10 +410,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -313,7 +447,7 @@
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="14.5908028738839" customWidth="1"/>
-    <col min="8" max="8" width="20.4857046944754" customWidth="1"/>
+    <col min="8" max="8" width="77.261727469308" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -321,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>1</v>
@@ -333,13 +467,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -362,15 +496,15 @@
         <v>11</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -391,7 +525,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/weapons.xlsx
+++ b/weapons.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="540" windowWidth="20175" windowHeight="7425" activeTab="2"/>
@@ -1799,7 +1799,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,10 +1871,10 @@
         <v>106</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
